--- a/EasyController/BOM.xlsx
+++ b/EasyController/BOM.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3C42FA-74FF-4EBD-A98F-86CA0F5A3070}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gerry/GIT_REPOS/patrick_eagle/EasyController/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22257" windowHeight="12649" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10660" yWindow="1920" windowWidth="27880" windowHeight="16740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Digikey part #</t>
   </si>
@@ -181,12 +188,30 @@
   </si>
   <si>
     <t>IRFB7730PBF-ND</t>
+  </si>
+  <si>
+    <t>CAN transceiver</t>
+  </si>
+  <si>
+    <t>IC6</t>
+  </si>
+  <si>
+    <t>120 resistor</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>MCP2562-E/P-ND</t>
+  </si>
+  <si>
+    <t>CF14JT120RCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -497,20 +522,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.09765625" customWidth="1"/>
-    <col min="2" max="2" width="17.296875" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -548,11 +573,11 @@
         <v>4.9799999999999995</v>
       </c>
       <c r="K2">
-        <f>SUM(I2:I99)</f>
-        <v>68.369999999999976</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <f>SUM(I:I)</f>
+        <v>69.429999999999964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -569,11 +594,11 @@
         <v>7</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I17" si="0">D3*C3</f>
+        <f t="shared" ref="I3:I18" si="0">D3*C3</f>
         <v>2.31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -594,7 +619,7 @@
         <v>21.06</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -615,7 +640,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -636,7 +661,7 @@
         <v>3.4499999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -657,7 +682,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -678,7 +703,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -699,7 +724,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -720,7 +745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -741,7 +766,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -762,7 +787,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -783,7 +808,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -804,7 +829,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -822,7 +847,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -840,25 +865,67 @@
         <v>1.82</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
-      <c r="E19" t="s">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>35</v>
       </c>
-      <c r="E20" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>34</v>
       </c>
     </row>
